--- a/regions/4/garemos dacva/garemos dacva.xlsx
+++ b/regions/4/garemos dacva/garemos dacva.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9873AC9C-007C-4F48-9AF1-431BA5428567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="აჭარის არ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -127,7 +126,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>141</t>
+      <t>142</t>
     </r>
     <r>
       <rPr>
@@ -144,12 +143,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +231,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,13 +281,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -312,9 +303,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -335,44 +323,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -520,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,327 +651,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" style="4" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>2013</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>2014</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>2015</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>2016</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>2017</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>2018</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>2019</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="J5" s="16">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>75894</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>77981</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>75510</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>65422</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>69034</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>58631</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>58490</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="8">
         <v>58828</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="J6" s="8">
+        <v>52809</v>
+      </c>
+      <c r="K6" s="8">
+        <v>59975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1671</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1895</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1880</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1044</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>1514</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1250</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>1257.2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>663</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="J7" s="8">
+        <v>1017.5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>3</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>3</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>4</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="J8" s="10">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>34</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>100</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>118</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>100</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>100</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>100</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>100</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="J9" s="10">
+        <v>190</v>
+      </c>
+      <c r="K9" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>3.3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>2.6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>1.3</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>6.4</v>
       </c>
-      <c r="F10" s="15">
-        <v>6.2</v>
-      </c>
-      <c r="G10" s="15">
-        <v>6.2</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="H10" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I10" s="15">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="I10" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>1.2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>0.3</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>5.2</v>
       </c>
-      <c r="F12" s="15">
-        <v>4.7</v>
-      </c>
-      <c r="G12" s="15">
-        <v>4.7</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="F12" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="12">
         <v>1</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="J12" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>2.1</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>1.5</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>1.2</v>
       </c>
-      <c r="F13" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="F13" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13" s="14">
         <v>1.2</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="K13" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>10</v>
       </c>
@@ -1044,96 +1038,79 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/4/garemos dacva/garemos dacva.xlsx
+++ b/regions/4/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="აჭარის არ" sheetId="1" r:id="rId1"/>
@@ -323,10 +323,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -339,13 +338,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,76 +654,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" style="4" customWidth="1"/>
-    <col min="2" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="12" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="16">
         <v>2013</v>
@@ -753,8 +761,11 @@
       <c r="K5" s="16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -788,8 +799,11 @@
       <c r="K6" s="8">
         <v>59975</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="8">
+        <v>55547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -823,8 +837,11 @@
       <c r="K7" s="8">
         <v>1471</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="8">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -858,8 +875,11 @@
       <c r="K8" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -893,8 +913,11 @@
       <c r="K9" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K10" s="12">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
@@ -942,7 +968,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1002,11 @@
       <c r="K12" s="12">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>4</v>
       </c>
@@ -1011,79 +1040,91 @@
       <c r="K13" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1091,7 +1132,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="12"/>
@@ -1102,15 +1143,16 @@
       <c r="K21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
